--- a/00-03 测试卡/第一批-珊瑚健康管家测试卡50张(海外).xlsx
+++ b/00-03 测试卡/第一批-珊瑚健康管家测试卡50张(海外).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\2020项目对接\01-01珊瑚配置产品\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\00-03 测试卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED9D1FE-D595-48AC-9F19-84B8BE6AD9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7125"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="结果数据" sheetId="1" r:id="rId1"/>
@@ -36,9 +37,6 @@
     <t>校验码</t>
   </si>
   <si>
-    <t>920121500000</t>
-  </si>
-  <si>
     <t>0910</t>
   </si>
   <si>
@@ -60,12 +58,6 @@
     <t>4997</t>
   </si>
   <si>
-    <t>920121500005</t>
-  </si>
-  <si>
-    <t>8689</t>
-  </si>
-  <si>
     <t>920121500006</t>
   </si>
   <si>
@@ -133,12 +125,6 @@
   </si>
   <si>
     <t>0539</t>
-  </si>
-  <si>
-    <t>920121500018</t>
-  </si>
-  <si>
-    <t>6006</t>
   </si>
   <si>
     <t>920121500019</t>
@@ -333,13 +319,33 @@
   </si>
   <si>
     <t>920121500013</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>920121500000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>920121500005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8689</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>920121500018</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6006</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -714,11 +720,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -755,10 +761,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -766,10 +772,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -777,10 +783,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -788,10 +794,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -799,21 +805,21 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
+      <c r="B8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -821,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -832,10 +838,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -843,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -854,10 +860,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -865,10 +871,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -876,10 +882,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -887,10 +893,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -898,10 +904,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -909,10 +915,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -920,10 +926,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -931,10 +937,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -942,21 +948,21 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>39</v>
+      <c r="B21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -964,10 +970,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -975,10 +981,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -986,10 +992,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -997,10 +1003,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -1008,10 +1014,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -1019,10 +1025,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -1030,10 +1036,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -1041,10 +1047,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -1052,10 +1058,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -1063,10 +1069,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -1074,10 +1080,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -1085,10 +1091,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1096,10 +1102,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -1107,10 +1113,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1118,10 +1124,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -1129,10 +1135,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -1140,10 +1146,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -1151,10 +1157,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1162,10 +1168,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1173,10 +1179,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1184,10 +1190,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -1195,10 +1201,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -1206,10 +1212,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -1217,10 +1223,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1228,10 +1234,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1239,10 +1245,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1250,10 +1256,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -1261,10 +1267,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -1272,10 +1278,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -1283,10 +1289,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1294,10 +1300,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
